--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.448873079385</v>
+        <v>3.167528544863667</v>
       </c>
       <c r="R2">
-        <v>2.69323847631</v>
+        <v>19.005171269182</v>
       </c>
       <c r="S2">
-        <v>0.006763495306365466</v>
+        <v>0.002126442052840921</v>
       </c>
       <c r="T2">
-        <v>0.004548271865520433</v>
+        <v>0.001433398287984888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H3">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I3">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J3">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.1688032601850001</v>
+        <v>17.07850469251617</v>
       </c>
       <c r="R3">
-        <v>1.01281956111</v>
+        <v>102.471028155097</v>
       </c>
       <c r="S3">
-        <v>0.002543480797566824</v>
+        <v>0.01146523229812613</v>
       </c>
       <c r="T3">
-        <v>0.00171042362388823</v>
+        <v>0.007728517372729221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>392.0055033333333</v>
+        <v>19.4786585</v>
       </c>
       <c r="H4">
-        <v>1176.01651</v>
+        <v>38.957317</v>
       </c>
       <c r="I4">
-        <v>0.5127309595519816</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J4">
-        <v>0.5171970317736688</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>24.72888316677667</v>
+        <v>4.246542339585001</v>
       </c>
       <c r="R4">
-        <v>222.55994850099</v>
+        <v>25.47925403751</v>
       </c>
       <c r="S4">
-        <v>0.3726079662859439</v>
+        <v>0.002850811313036383</v>
       </c>
       <c r="T4">
-        <v>0.3758535165239539</v>
+        <v>0.001921683240798852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>1176.01651</v>
       </c>
       <c r="I5">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J5">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>9.299546555576669</v>
+        <v>63.74610559305111</v>
       </c>
       <c r="R5">
-        <v>83.69591900019</v>
+        <v>573.71495033746</v>
       </c>
       <c r="S5">
-        <v>0.1401229932660376</v>
+        <v>0.04279437350539676</v>
       </c>
       <c r="T5">
-        <v>0.1413435152497148</v>
+        <v>0.04327043497569309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H6">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I6">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J6">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>14.25663320079833</v>
+        <v>343.7027158811011</v>
       </c>
       <c r="R6">
-        <v>128.309698807185</v>
+        <v>3093.32444292991</v>
       </c>
       <c r="S6">
-        <v>0.2148150026512724</v>
+        <v>0.2307363290886034</v>
       </c>
       <c r="T6">
-        <v>0.2166861190687027</v>
+        <v>0.2333031309150829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H7">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I7">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J7">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N7">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O7">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P7">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q7">
-        <v>5.361351067998334</v>
+        <v>85.46111978169999</v>
       </c>
       <c r="R7">
-        <v>48.25215961198501</v>
+        <v>769.1500780353</v>
       </c>
       <c r="S7">
-        <v>0.08078335380207244</v>
+        <v>0.05737221193518988</v>
       </c>
       <c r="T7">
-        <v>0.08148700605023278</v>
+        <v>0.05801044302331586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>375.1018676666667</v>
+      </c>
+      <c r="H8">
+        <v>1125.305603</v>
+      </c>
+      <c r="I8">
+        <v>0.3166340783504202</v>
+      </c>
+      <c r="J8">
+        <v>0.3201564405802684</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>12.69026</v>
-      </c>
-      <c r="H8">
-        <v>25.38052</v>
-      </c>
-      <c r="I8">
-        <v>0.01659846387725661</v>
-      </c>
-      <c r="J8">
-        <v>0.01116202833655136</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N8">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O8">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P8">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q8">
-        <v>0.8005396715799999</v>
+        <v>60.99731524457089</v>
       </c>
       <c r="R8">
-        <v>4.803238029479999</v>
+        <v>548.975837201138</v>
       </c>
       <c r="S8">
-        <v>0.01206231017175055</v>
+        <v>0.04094904099815549</v>
       </c>
       <c r="T8">
-        <v>0.008111584839235414</v>
+        <v>0.04140457426264757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.69026</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H9">
-        <v>25.38052</v>
+        <v>1125.305603</v>
       </c>
       <c r="I9">
-        <v>0.01659846387725661</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J9">
-        <v>0.01116202833655136</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N9">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O9">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P9">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q9">
-        <v>0.30105103798</v>
+        <v>328.8819405667359</v>
       </c>
       <c r="R9">
-        <v>1.80630622788</v>
+        <v>2959.937465100623</v>
       </c>
       <c r="S9">
-        <v>0.004536153705506055</v>
+        <v>0.2207867676441527</v>
       </c>
       <c r="T9">
-        <v>0.003050443497315945</v>
+        <v>0.2232428866293598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.311581666666666</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H10">
-        <v>21.934745</v>
+        <v>1125.305603</v>
       </c>
       <c r="I10">
-        <v>0.009563320545030469</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J10">
-        <v>0.009646620528067522</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N10">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O10">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P10">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q10">
-        <v>0.4612365062783333</v>
+        <v>81.77595817001001</v>
       </c>
       <c r="R10">
-        <v>4.151128556505</v>
+        <v>735.98362353009</v>
       </c>
       <c r="S10">
-        <v>0.006949784000439567</v>
+        <v>0.05489826970811205</v>
       </c>
       <c r="T10">
-        <v>0.007010319134300433</v>
+        <v>0.05550897968826102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.311581666666666</v>
+        <v>19.6220475</v>
       </c>
       <c r="H11">
-        <v>21.934745</v>
+        <v>39.244095</v>
       </c>
       <c r="I11">
-        <v>0.009563320545030469</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J11">
-        <v>0.009646620528067522</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N11">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O11">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P11">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q11">
-        <v>0.1734526518783334</v>
+        <v>3.190845794895</v>
       </c>
       <c r="R11">
-        <v>1.561073866905</v>
+        <v>19.14507476937</v>
       </c>
       <c r="S11">
-        <v>0.002613536544590902</v>
+        <v>0.002142095512729588</v>
       </c>
       <c r="T11">
-        <v>0.002636301393767088</v>
+        <v>0.001443950018080463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>119.4232813333333</v>
+        <v>19.6220475</v>
       </c>
       <c r="H12">
-        <v>358.269844</v>
+        <v>39.244095</v>
       </c>
       <c r="I12">
-        <v>0.1562019234684543</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J12">
-        <v>0.1575624987533681</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N12">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O12">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P12">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q12">
-        <v>7.533578856350666</v>
+        <v>17.2042253477325</v>
       </c>
       <c r="R12">
-        <v>67.802209707156</v>
+        <v>103.225352086395</v>
       </c>
       <c r="S12">
-        <v>0.1135138808165392</v>
+        <v>0.01154963175479282</v>
       </c>
       <c r="T12">
-        <v>0.1145026278005981</v>
+        <v>0.007785409605711192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>119.4232813333333</v>
+        <v>19.6220475</v>
       </c>
       <c r="H13">
-        <v>358.269844</v>
+        <v>39.244095</v>
       </c>
       <c r="I13">
-        <v>0.1562019234684543</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J13">
-        <v>0.1575624987533681</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N13">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O13">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P13">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q13">
-        <v>2.833078503070667</v>
+        <v>4.277802575475</v>
       </c>
       <c r="R13">
-        <v>25.497706527636</v>
+        <v>25.66681545285</v>
       </c>
       <c r="S13">
-        <v>0.04268804265191509</v>
+        <v>0.002871797100295037</v>
       </c>
       <c r="T13">
-        <v>0.04305987095276999</v>
+        <v>0.001935829401748021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H14">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J14">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487846</v>
+      </c>
+      <c r="O14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q14">
+        <v>21.69569453813978</v>
+      </c>
+      <c r="R14">
+        <v>195.261250843258</v>
+      </c>
+      <c r="S14">
+        <v>0.01456486865960577</v>
+      </c>
+      <c r="T14">
+        <v>0.01472689399660224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H15">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J15">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.630341</v>
+      </c>
+      <c r="O15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q15">
+        <v>116.9776422624048</v>
+      </c>
+      <c r="R15">
+        <v>1052.798780361643</v>
+      </c>
+      <c r="S15">
+        <v>0.07853005086641297</v>
+      </c>
+      <c r="T15">
+        <v>0.07940365009022671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H16">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J16">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.21801</v>
+      </c>
+      <c r="N16">
+        <v>0.65403</v>
+      </c>
+      <c r="O16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q16">
+        <v>29.08629997741</v>
+      </c>
+      <c r="R16">
+        <v>261.77669979669</v>
+      </c>
+      <c r="S16">
+        <v>0.01952636907844271</v>
+      </c>
+      <c r="T16">
+        <v>0.01974358810074852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H17">
+        <v>735.086327</v>
+      </c>
+      <c r="I17">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J17">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.487846</v>
+      </c>
+      <c r="O17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q17">
+        <v>39.84543603129355</v>
+      </c>
+      <c r="R17">
+        <v>358.608924281642</v>
+      </c>
+      <c r="S17">
+        <v>0.0267492493250356</v>
+      </c>
+      <c r="T17">
+        <v>0.02704681851275589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H18">
+        <v>735.086327</v>
+      </c>
+      <c r="I18">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J18">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.630341</v>
+      </c>
+      <c r="O18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q18">
+        <v>214.8364116052786</v>
+      </c>
+      <c r="R18">
+        <v>1933.527704447507</v>
+      </c>
+      <c r="S18">
+        <v>0.1442251186211704</v>
+      </c>
+      <c r="T18">
+        <v>0.1458295356601486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H19">
+        <v>735.086327</v>
+      </c>
+      <c r="I19">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J19">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.21801</v>
+      </c>
+      <c r="N19">
+        <v>0.65403</v>
+      </c>
+      <c r="O19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q19">
+        <v>53.41872338309</v>
+      </c>
+      <c r="R19">
+        <v>480.76851044781</v>
+      </c>
+      <c r="S19">
+        <v>0.03586134053790137</v>
+      </c>
+      <c r="T19">
+        <v>0.03626027621810517</v>
       </c>
     </row>
   </sheetData>
